--- a/core/ERD_Core_Notes.xlsx
+++ b/core/ERD_Core_Notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Diagram</t>
   </si>
   <si>
-    <t>In ERD_Core.dmd and ERD_Diagram.pdf, the relations in black lines were detected by the tool. The other ones -red lines- were added to reflect the relations between the tables with Victor's guide.</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -291,6 +288,21 @@
   </si>
   <si>
     <t>null, 'Lima'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate if it is neccesary the columns with null values in all their records, and those that just have one value. </t>
+  </si>
+  <si>
+    <t>Tables "location" and "customer" have more columns with nulls,  so these tables are not fully used.</t>
+  </si>
+  <si>
+    <t>Must keep the convention in named tables and columns, start with lower case and use capital for the first letter of next word without spaces or underscores. Notice that table "scoring_integrityDetail" fails with this.</t>
+  </si>
+  <si>
+    <t>In ERD_Core.dmd and ERD_Diagram.pdf, the relations in black lines were detected by the tool. The other ones -red lines- were added to reflect the relations between the tables with Victor's guide. Create these relationships could reforce the integrity of the DB core.</t>
+  </si>
+  <si>
+    <t>Next step: Evaluate index and queries.</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,15 +579,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -585,29 +588,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,12 +602,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -635,6 +614,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -918,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -937,47 +958,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="26">
+      <c r="E2" s="32">
         <v>42129</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="A4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,32 +1006,32 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4">
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
+        <v>75</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,48 +1137,48 @@
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>82</v>
+      <c r="A23" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1166,23 +1187,23 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <v>1</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="16">
         <v>2</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1190,415 +1211,462 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="F26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="36" t="s">
-        <v>34</v>
+      <c r="F27" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="36" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="37" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="37" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="37" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="37" t="s">
-        <v>34</v>
+      <c r="F33" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="37" t="s">
-        <v>34</v>
+      <c r="F34" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="37" t="s">
-        <v>34</v>
+      <c r="F35" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="37" t="s">
-        <v>34</v>
+      <c r="F36" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="37" t="s">
-        <v>34</v>
+      <c r="F37" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="37" t="s">
-        <v>34</v>
+      <c r="F39" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="37" t="s">
-        <v>34</v>
+      <c r="F40" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="37" t="s">
-        <v>34</v>
+      <c r="F41" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="37" t="s">
-        <v>88</v>
+      <c r="F42" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="37" t="s">
-        <v>52</v>
+      <c r="F43" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="37" t="s">
-        <v>52</v>
+      <c r="F44" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="38" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="32" t="s">
+      <c r="D46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="39" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E47" s="9"/>
-      <c r="F47" s="40">
+      <c r="F47" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="49" spans="1:6" ht="12" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="41" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15">
+        <v>3</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>4</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
